--- a/src/main/java/algstudent/s12/Tables.xlsx
+++ b/src/main/java/algstudent/s12/Tables.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UO277172\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simplemente -V-\git\algorithmicsRicoIglesiasMateoUO277172\src\main\java\algstudent\s12\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDAD5C5-0995-4D5A-AB26-BF52B4946CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,9 +71,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -165,7 +174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -453,11 +462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="5">
-        <f>C3/E3</f>
+        <f t="shared" ref="G3:G12" si="0">C3/E3</f>
         <v>1</v>
       </c>
       <c r="H3" s="7"/>
@@ -548,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="N3" s="5">
-        <f>J3/L3</f>
+        <f t="shared" ref="N3:N12" si="1">J3/L3</f>
         <v>1</v>
       </c>
     </row>
@@ -572,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="5">
-        <f>C4/E4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
@@ -595,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="5">
-        <f>J4/L4</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -608,18 +617,18 @@
         <v>7</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D12" si="0" xml:space="preserve"> (B5^2/B4^2)*C4</f>
+        <f t="shared" ref="D5:D12" si="2" xml:space="preserve"> (B5^2/B4^2)*C4</f>
         <v>8</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F12" si="1">(B5^2/B4^2)*E4</f>
+        <f t="shared" ref="F5:F12" si="3">(B5^2/B4^2)*E4</f>
         <v>4</v>
       </c>
       <c r="G5" s="5">
-        <f>C5/E5</f>
+        <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="H5" s="7"/>
@@ -631,347 +640,347 @@
         <v>2</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K12" si="2">(I5^2/I4^2)*J4</f>
+        <f t="shared" ref="K5:K12" si="4">(I5^2/I4^2)*J4</f>
         <v>4</v>
       </c>
       <c r="L5" s="4">
         <v>7</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" ref="M5:M12" si="3">(I5^2/I4^2)*L4</f>
+        <f t="shared" ref="M5:M12" si="5">(I5^2/I4^2)*L4</f>
         <v>8</v>
       </c>
       <c r="N5" s="5">
-        <f>J5/L5</f>
+        <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <f t="shared" ref="B6:B12" si="4">B5*2</f>
+        <f t="shared" ref="B6:B12" si="6">B5*2</f>
         <v>64</v>
       </c>
       <c r="C6" s="4">
         <v>20</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E6" s="4">
         <v>11</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G6" s="5">
-        <f>C6/E6</f>
+        <f t="shared" si="0"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I12" si="5">I5*2</f>
+        <f t="shared" ref="I6:I12" si="7">I5*2</f>
         <v>64</v>
       </c>
       <c r="J6" s="4">
         <v>3</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L6" s="4">
         <v>20</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="N6" s="5">
-        <f>J6/L6</f>
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="C7" s="4">
         <v>84</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="E7" s="4">
         <v>41</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="G7" s="5">
-        <f>C7/E7</f>
+        <f t="shared" si="0"/>
         <v>2.0487804878048781</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="L7" s="4">
         <v>84</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="N7" s="5">
-        <f>J7/L7</f>
+        <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
       <c r="C8" s="4">
         <v>317</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="E8" s="4">
         <v>163</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="G8" s="5">
-        <f>C8/E8</f>
+        <f t="shared" si="0"/>
         <v>1.9447852760736197</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="J8" s="4">
         <v>12</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L8" s="4">
         <v>317</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
       <c r="N8" s="5">
-        <f>J8/L8</f>
+        <f t="shared" si="1"/>
         <v>3.7854889589905363E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>512</v>
       </c>
       <c r="C9" s="4">
         <v>1248</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1268</v>
       </c>
       <c r="E9" s="4">
         <v>626</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>652</v>
       </c>
       <c r="G9" s="5">
-        <f>C9/E9</f>
+        <f t="shared" si="0"/>
         <v>1.9936102236421724</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="J9" s="4">
         <v>24</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="L9" s="4">
         <v>1248</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1268</v>
       </c>
       <c r="N9" s="5">
-        <f>J9/L9</f>
+        <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1024</v>
       </c>
       <c r="C10" s="4">
         <v>4987</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4992</v>
       </c>
       <c r="E10" s="4">
         <v>2500</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2504</v>
       </c>
       <c r="G10" s="5">
-        <f>C10/E10</f>
+        <f t="shared" si="0"/>
         <v>1.9947999999999999</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
       <c r="J10" s="4">
         <v>57</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="L10" s="4">
         <v>4987</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4992</v>
       </c>
       <c r="N10" s="5">
-        <f>J10/L10</f>
+        <f t="shared" si="1"/>
         <v>1.1429717264888711E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
       <c r="C11" s="4">
         <v>20098</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19948</v>
       </c>
       <c r="E11" s="4">
         <v>10019</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="G11" s="5">
-        <f>C11/E11</f>
+        <f t="shared" si="0"/>
         <v>2.0059886216189242</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
       <c r="J11" s="4">
         <v>123</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="L11" s="4">
         <v>20098</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19948</v>
       </c>
       <c r="N11" s="5">
-        <f>J11/L11</f>
+        <f t="shared" si="1"/>
         <v>6.1200119414867148E-3</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="C12" s="4">
         <v>80320</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80392</v>
       </c>
       <c r="E12" s="4">
         <v>40184</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40076</v>
       </c>
       <c r="G12" s="5">
-        <f>C12/E12</f>
+        <f t="shared" si="0"/>
         <v>1.9988054947242684</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4096</v>
       </c>
       <c r="J12" s="4">
         <v>254</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>492</v>
       </c>
       <c r="L12" s="4">
         <v>80320</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80392</v>
       </c>
       <c r="N12" s="5">
-        <f>J12/L12</f>
+        <f t="shared" si="1"/>
         <v>3.1623505976095616E-3</v>
       </c>
     </row>
@@ -1050,14 +1059,14 @@
         <v>6</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="5" t="e">
+      <c r="G16" s="5">
         <f>C16/E16</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="2">
@@ -1065,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>6</v>
@@ -1091,10 +1100,10 @@
       </c>
       <c r="F17" s="5">
         <f>((B17^3*LOG(B17,2))/(B16^3*LOG(B16,2)))*E16</f>
-        <v>0</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" ref="G17:G25" si="6">C17/E17</f>
+        <f>C17/E17</f>
         <v>2</v>
       </c>
       <c r="H17" s="7"/>
@@ -1107,7 +1116,7 @@
       </c>
       <c r="K17" s="4">
         <f>(I17^3/I16^3)*J16</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1119,10 +1128,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:D25" si="7">(B18^4/B17^4)*C17</f>
+        <f>(B18^4/B17^4)*C17</f>
         <v>32</v>
       </c>
       <c r="E18" s="4">
@@ -1133,8 +1142,8 @@
         <v>10</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="6"/>
-        <v>1.1666666666666667</v>
+        <f>C18/E18</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="2">
@@ -1142,7 +1151,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" ref="K18:K25" si="9">(I18^3/I17^3)*J17</f>
@@ -1158,11 +1167,11 @@
         <v>64</v>
       </c>
       <c r="C19" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="7"/>
-        <v>112</v>
+        <f>(B19^4/B18^4)*C18</f>
+        <v>80</v>
       </c>
       <c r="E19" s="4">
         <v>26</v>
@@ -1172,8 +1181,8 @@
         <v>57.599999999999994</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="6"/>
-        <v>0.65384615384615385</v>
+        <f>C19/E19</f>
+        <v>0.61538461538461542</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="2">
@@ -1181,11 +1190,11 @@
         <v>64</v>
       </c>
       <c r="J19" s="4">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1197,11 +1206,11 @@
         <v>128</v>
       </c>
       <c r="C20" s="4">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="7"/>
-        <v>272</v>
+        <f>(B20^4/B19^4)*C19</f>
+        <v>256</v>
       </c>
       <c r="E20" s="4">
         <v>233</v>
@@ -1211,8 +1220,8 @@
         <v>242.66666666666669</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="6"/>
-        <v>0.76394849785407726</v>
+        <f>C20/E20</f>
+        <v>0.73390557939914158</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="2">
@@ -1220,11 +1229,11 @@
         <v>128</v>
       </c>
       <c r="J20" s="4">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="9"/>
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1236,11 +1245,11 @@
         <v>256</v>
       </c>
       <c r="C21" s="4">
-        <v>2315</v>
+        <v>2073</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="7"/>
-        <v>2848</v>
+        <f>(B21^4/B20^4)*C20</f>
+        <v>2736</v>
       </c>
       <c r="E21" s="4">
         <v>1921</v>
@@ -1250,8 +1259,8 @@
         <v>2130.2857142857142</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2051015096304007</v>
+        <f>C21/E21</f>
+        <v>1.0791254554919314</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="2">
@@ -1259,11 +1268,11 @@
         <v>256</v>
       </c>
       <c r="J21" s="4">
-        <v>1920</v>
+        <v>79</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="9"/>
-        <v>1824</v>
+        <v>96</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -1275,11 +1284,11 @@
         <v>512</v>
       </c>
       <c r="C22" s="4">
-        <v>37162</v>
+        <v>34679</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="7"/>
-        <v>37040</v>
+        <f>(B22^4/B21^4)*C21</f>
+        <v>33168</v>
       </c>
       <c r="E22" s="4">
         <v>16796</v>
@@ -1289,8 +1298,8 @@
         <v>17289</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="6"/>
-        <v>2.2125506072874495</v>
+        <f>C22/E22</f>
+        <v>2.064717789949988</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="2">
@@ -1298,11 +1307,11 @@
         <v>512</v>
       </c>
       <c r="J22" s="4">
-        <v>16765</v>
+        <v>516</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="9"/>
-        <v>15360</v>
+        <v>632</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -1313,10 +1322,12 @@
         <f t="shared" si="10"/>
         <v>1024</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>467034</v>
+      </c>
       <c r="D23" s="4">
-        <f t="shared" si="7"/>
-        <v>594592</v>
+        <f>(B23^4/B22^4)*C22</f>
+        <v>554864</v>
       </c>
       <c r="E23" s="4">
         <v>140962</v>
@@ -1326,84 +1337,54 @@
         <v>149297.77777777778</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="G17:G25" si="12">C23/E23</f>
+        <v>3.3131907890069665</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="2">
         <f t="shared" si="11"/>
         <v>1024</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>3110</v>
+      </c>
       <c r="K23" s="4">
         <f t="shared" si="9"/>
-        <v>134120</v>
+        <v>4128</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <f t="shared" si="10"/>
-        <v>2048</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5">
-        <f t="shared" si="8"/>
-        <v>1240465.6000000001</v>
-      </c>
-      <c r="G24" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="2">
         <f t="shared" si="11"/>
         <v>2048</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4">
+        <v>18082</v>
+      </c>
       <c r="K24" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>24880</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <f t="shared" si="10"/>
-        <v>4096</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="2">
         <f t="shared" si="11"/>
         <v>4096</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4">
+        <v>115452</v>
+      </c>
       <c r="K25" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>144656</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -1454,6 +1435,95 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2">
+        <f>B23*2</f>
+        <v>2048</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
+        <f>(H32^4/B23^4)*C23</f>
+        <v>7472544</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5">
+        <f>((H32^3*LOG(H32,2))/(B23^3*LOG(B23,2)))*E23</f>
+        <v>1240465.6000000001</v>
+      </c>
+      <c r="M32" s="5" t="e">
+        <f>I32/K32</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>17</v>
+      </c>
+      <c r="E33" s="4">
+        <v>32</v>
+      </c>
+      <c r="H33" s="2">
+        <f>H32*2</f>
+        <v>4096</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
+        <f>(H33^4/H32^4)*I32</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5">
+        <f>((H33^3*LOG(H33,2))/(H32^3*LOG(H32,2)))*K32</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="5" t="e">
+        <f>I33/K33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>178</v>
+      </c>
+      <c r="E34" s="4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>2315</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>37162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
